--- a/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
+++ b/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D76CA9-CB7D-4AEA-B853-E7ECC7B7412C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E5DE62-994A-4E20-B5E4-2B5A96739F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
     <t>concat(${p_cluster_id},'-',substr(random(),3,9))</t>
   </si>
   <si>
-    <t>sn_lf_pretas_2_partcipants_202007</t>
-  </si>
-  <si>
     <t>2. Pre-TAS FL Form Participants (Juillet 2020)</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2_partcipants_202009</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
       </c>
       <c r="C2">
         <v>20200717</v>

--- a/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
+++ b/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E5DE62-994A-4E20-B5E4-2B5A96739F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2639D4-76D4-4301-84B5-ABD5E17E4409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -302,15 +302,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 12</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 12 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 12 ans</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -347,10 +338,19 @@
     <t>concat(${p_cluster_id},'-',substr(random(),3,9))</t>
   </si>
   <si>
-    <t>2. Pre-TAS FL Form Participants (Juillet 2020)</t>
-  </si>
-  <si>
     <t>sn_lf_pretas_2_partcipants_202009</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 2. Pre-TAS FL Formulaire Participants</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 120 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 5 et 120 ans</t>
   </si>
 </sst>
 </file>
@@ -855,34 +855,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M3"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -929,10 +929,10 @@
         <v>12</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -970,19 +970,19 @@
       <c r="O2" s="12"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -998,19 +998,19 @@
       <c r="O3" s="12"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
@@ -1026,19 +1026,19 @@
       <c r="O4" s="15"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1054,7 +1054,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1129,13 +1129,13 @@
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>75</v>
@@ -1148,7 +1148,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>79</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>80</v>
@@ -1278,7 +1278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>73</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
@@ -1391,15 +1391,15 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>62</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>62</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>68</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
@@ -1510,18 +1510,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1535,18 +1535,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2">
-        <v>20200717</v>
+        <v>20200007</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
+++ b/LF/PreTAS/Senegal/sn_lf_pretas_2_partcipants_202007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2639D4-76D4-4301-84B5-ABD5E17E4409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D26C5-B866-477E-9AE7-765B6A0000CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -338,12 +338,6 @@
     <t>concat(${p_cluster_id},'-',substr(random(),3,9))</t>
   </si>
   <si>
-    <t>sn_lf_pretas_2_partcipants_202009</t>
-  </si>
-  <si>
-    <t>(Septembre 2020) 2. Pre-TAS FL Formulaire Participants</t>
-  </si>
-  <si>
     <t>. &gt;= 5 and . &lt;= 120</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
   </si>
   <si>
     <t>L'age doit être compris entre 5 et 120 ans</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2_partcipants_202009_v2</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 2. Pre-TAS FL Formulaire Participants V2</t>
   </si>
 </sst>
 </file>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
@@ -1129,13 +1129,13 @@
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>75</v>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>20200007</v>
